--- a/data/case1/18/Q1_13.xlsx
+++ b/data/case1/18/Q1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.081202724996835229</v>
+        <v>0.11035056273264843</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.005999999925506927</v>
+        <v>-0.0059999999653186364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999425592847</v>
+        <v>-0.0039999999719491086</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999998916591153</v>
+        <v>-0.0079999999474598127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999519070286</v>
+        <v>-0.0029999999741292527</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.034575524410314529</v>
+        <v>-0.0019999999753483877</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.009999999861681097</v>
+        <v>-0.0099999999293198805</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998595059481</v>
+        <v>-0.0099999999278321816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999567805737</v>
+        <v>-0.0019999999719728656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999564230819</v>
+        <v>0.019519257162420089</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999441416847</v>
+        <v>-0.0029999999650511811</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999383238389</v>
+        <v>-0.0034999999613560817</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999410807447</v>
+        <v>-0.0034999999576763585</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999998871453926</v>
+        <v>-0.007999999931158186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999997556743381</v>
+        <v>-0.00099999997025967957</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.001999999966623367</v>
+        <v>-0.001999999963985033</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.026352123088066115</v>
+        <v>-0.0019999999630835319</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999487969617</v>
+        <v>-0.003999999951511235</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999497974947</v>
+        <v>-0.0039999999765703009</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.005282722473079815</v>
+        <v>-0.0039999999763935534</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999472373204</v>
+        <v>-0.0039999999765552019</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999467186242</v>
+        <v>0.010013515737603562</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999263432571</v>
+        <v>-0.0049999999642738047</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999733409268</v>
+        <v>-0.019999999875334851</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.01999999972904476</v>
+        <v>-0.019999999873585139</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.001686989001736805</v>
+        <v>-0.0024999999723611666</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.002499999953138321</v>
+        <v>-0.0024999999722465915</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999538624635</v>
+        <v>-0.0019999999747781771</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998892198434</v>
+        <v>-0.0062772939788375837</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999237819956</v>
+        <v>0.028976408432102474</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999031260529</v>
+        <v>-0.0069999999444565475</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998707449578</v>
+        <v>-0.0099999999270234952</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.071668006211710988</v>
+        <v>-0.0039999999609374726</v>
       </c>
     </row>
   </sheetData>
